--- a/comparaison_methode_river_capymoa.xlsx
+++ b/comparaison_methode_river_capymoa.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/theocadene/Documents/M2 DS/DataStream/DataStream_lab2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B3AC81F-5CB1-2A42-AD7E-39BAC644DF8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8157C28C-EC51-C844-97F9-F9755F1BA0EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="140" yWindow="660" windowWidth="34140" windowHeight="26280" activeTab="3" xr2:uid="{83F16D42-ED15-264A-8378-0B3F039E809B}"/>
+    <workbookView xWindow="140" yWindow="660" windowWidth="34140" windowHeight="26280" activeTab="2" xr2:uid="{83F16D42-ED15-264A-8378-0B3F039E809B}"/>
   </bookViews>
   <sheets>
     <sheet name="Regression" sheetId="1" r:id="rId1"/>
@@ -1102,10 +1102,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34C331F6-CB11-2F4A-87E1-CE80A38F6B84}">
-  <dimension ref="A1:B28"/>
+  <dimension ref="A1:B29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K40" sqref="K40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1150,9 +1150,6 @@
       </c>
     </row>
     <row r="6" spans="1:2" ht="19" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>24</v>
-      </c>
       <c r="B6" s="4" t="s">
         <v>50</v>
       </c>
@@ -1306,6 +1303,11 @@
         <v>25</v>
       </c>
       <c r="B28" s="4"/>
+    </row>
+    <row r="29" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>24</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1316,8 +1318,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D50799C-4329-6645-96F2-1E4DBC8EF132}">
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
